--- a/Manual_Testing/Project/Testcases/RedbusTestCases.xlsx
+++ b/Manual_Testing/Project/Testcases/RedbusTestCases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software_Testing\Manual_Testing\Project\HLR Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software_Testing\Manual_Testing\Project\Testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6C8716-BF52-4F18-85CF-64F9CF16378B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53241D76-E9FF-4554-A92C-FC22CB996530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="21" xr2:uid="{71E508A7-A0FB-4BEB-92AE-863C189333AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="11" xr2:uid="{71E508A7-A0FB-4BEB-92AE-863C189333AE}"/>
   </bookViews>
   <sheets>
     <sheet name="HLRREPORT" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,7 @@
     <sheet name="Bus Operator Registration" sheetId="19" r:id="rId18"/>
     <sheet name="Primo Bus" sheetId="20" r:id="rId19"/>
     <sheet name="Bus TimeTable" sheetId="22" r:id="rId20"/>
-    <sheet name="Sheet2" sheetId="24" r:id="rId21"/>
-    <sheet name="Defect Report" sheetId="23" r:id="rId22"/>
-    <sheet name="Sheet3" sheetId="25" r:id="rId23"/>
+    <sheet name="Defect Report" sheetId="23" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="657">
   <si>
     <t>Functionality Id</t>
   </si>
@@ -2387,6 +2385,48 @@
   </si>
   <si>
     <t>Without filling any data error message is not generating and same page refreshes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card Number : 5447700143335872
+Expiry Date : DEC-2029
+CVV Number : 121
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card Number : 5447700143335872
+Expiry Date : NOV-2027
+CVV Number : 121
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card Number : 5447700143335872
+Expiry Date : DEC-2029
+CVV Number : 112
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card Number : 5447700143332321
+Expiry Date : DEC-2029
+CVV Number : 112
+</t>
+  </si>
+  <si>
+    <t>OTP : 212324</t>
+  </si>
+  <si>
+    <t>Error message : Session has been expired</t>
+  </si>
+  <si>
+    <t>OTP :218989</t>
+  </si>
+  <si>
+    <t>Payment method : My wallet
+Wallet Balance : 20000</t>
+  </si>
+  <si>
+    <t>Payment method : My wallet
+Refund money : 1200
+Wallet Balance : 20000</t>
   </si>
 </sst>
 </file>
@@ -3955,7 +3995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99608C73-AC86-42BB-A97B-BFB9695A1649}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4199,8 +4239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC608FFF-1BCB-43A1-ADC3-DB54C0FD59FB}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4261,7 +4301,9 @@
       <c r="E2" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>655</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>430</v>
       </c>
@@ -4288,7 +4330,9 @@
       <c r="E3" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>655</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>430</v>
       </c>
@@ -4299,7 +4343,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>330</v>
       </c>
@@ -4315,7 +4359,9 @@
       <c r="E4" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>656</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>595</v>
       </c>
@@ -4326,7 +4372,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>331</v>
       </c>
@@ -4342,7 +4388,9 @@
       <c r="E5" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>656</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>597</v>
       </c>
@@ -4353,7 +4401,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>332</v>
       </c>
@@ -4369,7 +4417,9 @@
       <c r="E6" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>656</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>599</v>
       </c>
@@ -4422,8 +4472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888603FB-96A5-4BBE-8CDB-2F14C20C6DF3}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4483,7 +4533,9 @@
       <c r="E2" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>648</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>426</v>
       </c>
@@ -4510,7 +4562,9 @@
       <c r="E3" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>649</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>604</v>
       </c>
@@ -4537,7 +4591,9 @@
       <c r="E4" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>650</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>604</v>
       </c>
@@ -4564,7 +4620,9 @@
       <c r="E5" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>651</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>604</v>
       </c>
@@ -4591,7 +4649,9 @@
       <c r="E6" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>648</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>606</v>
       </c>
@@ -4618,7 +4678,9 @@
       <c r="E7" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>648</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>608</v>
       </c>
@@ -4645,7 +4707,9 @@
       <c r="E8" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>652</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>611</v>
       </c>
@@ -4672,7 +4736,9 @@
       <c r="E9" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>653</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>613</v>
       </c>
@@ -4697,7 +4763,9 @@
       <c r="E10" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>654</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>615</v>
       </c>
@@ -4715,7 +4783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44476C8-C9E4-49A6-BCC3-76BE339F9DB7}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -5078,8 +5146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA8387C-211F-4C35-8325-67FEC2ACECBC}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5883,8 +5951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7AF40A-3A64-4F24-BA40-E84BD060F652}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6593,22 +6661,10 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6FF3A1-A362-4994-8962-9DEAFEF7D987}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649ABFB9-716A-4286-B9DB-F61A3BC33373}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -6781,25 +6837,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503DE158-8074-4F89-808A-48D2873E3DB0}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20810E2-1837-4870-8292-1C3DDF37F5C5}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -8514,7 +8556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2C6020-EB0A-47DD-A9A6-FACF4B134619}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N5" sqref="M5:N5"/>
     </sheetView>
   </sheetViews>
